--- a/Planilha Controle(Instagram)/Planilha controle(Hugo).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(Hugo).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4156FC6-EA66-459D-B375-4C951A4FC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78931FAA-12F3-4ED6-8F22-9232EA9352FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77E39F9F-AC48-4950-AF6C-24C309E11276}"/>
   </bookViews>
@@ -182,7 +182,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -298,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -651,12 +659,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -715,6 +738,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,8 +789,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,21 +803,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -826,8 +855,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.4990533925708431E-2"/>
-          <c:y val="0.14357562259566714"/>
+          <c:x val="4.8177539260106463E-2"/>
+          <c:y val="0.14357552893733772"/>
           <c:w val="0.51911089238845143"/>
           <c:h val="0.84991808342062147"/>
         </c:manualLayout>
@@ -867,7 +896,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -959,7 +991,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$3:$B$4</c:f>
+              <c:f>Planilha1!$B$2:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -973,7 +1005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$3:$C$4</c:f>
+              <c:f>Planilha1!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -981,7 +1013,7 @@
                   <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>846</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1133,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14559118018744388"/>
+          <c:y val="8.1428821397325338E-2"/>
+          <c:w val="0.74908698912635918"/>
+          <c:h val="0.80881475785013335"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1109,32 +1151,98 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Série1</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$G$31:$G$34</c:f>
+              <c:f>Planilha1!$I$31:$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Casa</c:v>
+                  <c:v>Conta de água</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Transporte</c:v>
+                  <c:v>Manutenção</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Saude</c:v>
+                  <c:v>Planos de Saúde</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lazer</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1146,16 +1254,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,32 +1277,64 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Despesas</c:v>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$G$31:$G$34</c:f>
+              <c:f>Planilha1!$I$31:$I$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Casa</c:v>
+                  <c:v>Conta de água</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Transporte</c:v>
+                  <c:v>Manutenção</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Saude</c:v>
+                  <c:v>Planos de Saúde</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Lazer</c:v>
+                  <c:v>Cinema</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,13 +1392,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -1268,12 +1403,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1295,39 +1427,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="458856840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1340,45 +1445,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2082,7 +2154,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="348">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2093,7 +2165,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2106,7 +2178,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2123,7 +2195,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2139,7 +2211,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2183,20 +2255,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2205,13 +2277,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2223,10 +2295,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2235,16 +2307,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2286,23 +2359,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2349,14 +2421,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2407,8 +2473,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2446,20 +2512,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2472,6 +2538,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2503,7 +2580,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2512,14 +2589,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2540,20 +2616,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2574,14 +2649,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2590,16 +2659,81 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2028825</xdr:rowOff>
+      <xdr:rowOff>2247900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo: Cantos Arredondados 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999066CA-04A3-4F4C-9182-B47C599AC940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="1266826"/>
+          <a:ext cx="4162425" cy="2009774"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2219325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2614,8 +2748,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="857250"/>
-          <a:ext cx="3438525" cy="2181225"/>
+          <a:off x="2314576" y="1276350"/>
+          <a:ext cx="4086224" cy="1971675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2656,15 +2790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2679,11 +2813,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124449" y="0"/>
-          <a:ext cx="5476875" cy="514349"/>
+          <a:off x="4810125" y="66675"/>
+          <a:ext cx="4267200" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9260"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
@@ -2720,7 +2856,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="2800" b="1" i="1">
+            <a:rPr lang="pt-BR" sz="2000" b="1" i="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -2728,14 +2864,14 @@
             <a:t>Planilha</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="2800" b="1" i="1" baseline="0">
+            <a:rPr lang="pt-BR" sz="2000" b="1" i="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> de controle familiar 2023</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="2800" b="1" i="1">
+          <a:endParaRPr lang="pt-BR" sz="2000" b="1" i="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2748,15 +2884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2771,8 +2907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1352549"/>
-          <a:ext cx="2924175" cy="371475"/>
+          <a:off x="523875" y="3724274"/>
+          <a:ext cx="1257300" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2826,16 +2962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2381249</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2850,8 +2986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="3390899"/>
-          <a:ext cx="3495675" cy="390526"/>
+          <a:off x="7315200" y="3676649"/>
+          <a:ext cx="1457325" cy="390526"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2905,16 +3041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1756874</xdr:rowOff>
+      <xdr:rowOff>2071199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2942,15 +3078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2047875</xdr:rowOff>
+      <xdr:rowOff>2276475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2973,6 +3109,186 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426ABE0D-AD86-48C8-97B7-B8888F70112E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="914401"/>
+          <a:ext cx="3600450" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="snipRoundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="31750"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Percentual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> despesas x receita</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1600" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Retângulo: Cantos Superiores, Um Arredondado e Um Recortado 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52345AEC-EF1F-47CF-854B-DFDACEFBDF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="904876"/>
+          <a:ext cx="3886200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="snipRoundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="31750"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Maiores despesas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> por categoria</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1600" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3275,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2871187-4503-4942-98FF-35A22995196B}">
-  <dimension ref="A2:M51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3293,57 +3609,57 @@
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="33" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C2" s="5">
         <f>D15+D22+D29</f>
         <v>1190</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
+        <f>I22+I28+M21+M28</f>
+        <v>2011</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="6">
-        <f>I22+I28+M21+M28</f>
-        <v>846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A5" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="9">
-        <f>C3-C4</f>
-        <v>344</v>
+      <c r="B4" s="25"/>
+      <c r="C4" s="9">
+        <f>C2-C3</f>
+        <v>-821</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="15.75">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="14">
         <v>1190</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="35" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3352,57 +3668,57 @@
       <c r="I11" s="5">
         <v>78</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="34"/>
+        <v>798</v>
+      </c>
+      <c r="K13" s="36"/>
       <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3411,28 +3727,28 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1">
@@ -3445,7 +3761,7 @@
         <f>SUM(D11:D14)</f>
         <v>1190</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3456,7 +3772,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3467,7 +3783,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3476,74 +3792,74 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="35" t="s">
         <v>26</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M18" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="16">
         <v>0</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="16">
         <v>0</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="7" t="s">
         <v>29</v>
       </c>
@@ -3552,28 +3868,28 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
-        <v>0</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" thickBot="1">
@@ -3586,13 +3902,13 @@
         <f>SUM(D18:D21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
-        <v>667</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75">
@@ -3604,17 +3920,17 @@
       <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15.75">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3623,7 +3939,7 @@
       <c r="I25" s="5">
         <v>89</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="35" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -3634,22 +3950,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="16">
         <v>0</v>
       </c>
-      <c r="G26" s="34"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="3" t="s">
         <v>33</v>
       </c>
@@ -3658,22 +3974,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="16">
         <v>0</v>
       </c>
-      <c r="G27" s="34"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="7" t="s">
         <v>34</v>
       </c>
@@ -3682,26 +3998,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="18">
         <v>0</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>179</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="23"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -3719,121 +4035,120 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="G31" t="s">
+      <c r="G31" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="42">
         <f>MAX(I11:I21)</f>
-        <v>500</v>
-      </c>
-      <c r="I31" s="40" t="str">
+        <v>798</v>
+      </c>
+      <c r="I31" s="41" t="str">
         <f>INDEX(H11:I21,MATCH(H31,I11:I21,0),1)</f>
-        <v>Telefone</v>
+        <v>Conta de água</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="G32" t="s">
+      <c r="G32" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="42">
         <f>MAX(M11:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="40" t="str">
+        <v>580</v>
+      </c>
+      <c r="I32" s="41" t="str">
         <f>INDEX(L11:M13,MATCH(H32,M11:M13,0),1)</f>
-        <v>IPVA</v>
+        <v>Manutenção</v>
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" t="s">
+      <c r="G33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="42">
         <f>MAX(I25:I27)</f>
         <v>90</v>
       </c>
-      <c r="I33" s="40" t="str">
+      <c r="I33" s="41" t="str">
         <f>INDEX(H25:I27,MATCH(H33,I25:I27,0),1)</f>
         <v>Planos de Saúde</v>
       </c>
     </row>
     <row r="34" spans="7:10">
-      <c r="G34" t="s">
+      <c r="G34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="42">
         <f>MAX(M18:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="40" t="str">
-        <f>INDEX(L18:M20,MATCH(H34,I14:I24,0),1)</f>
+        <v>300</v>
+      </c>
+      <c r="I34" s="41" t="str">
+        <f>INDEX(L18:M20,MATCH(H34,M18:M20,0),1)</f>
         <v>Cinema</v>
       </c>
     </row>
     <row r="40" spans="7:10" ht="15.75">
-      <c r="H40" s="37"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="7:10" ht="15.75">
-      <c r="H41" s="38"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="7:10" ht="15.75">
-      <c r="H42" s="38"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="7:10" ht="15.75">
-      <c r="H43" s="38"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="7:10" ht="15.75">
-      <c r="H44" s="38"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="10"/>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="7:10" ht="15.75">
-      <c r="H45" s="38"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="10"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="7:10" ht="15.75">
-      <c r="H46" s="38"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="7:10" ht="15.75">
-      <c r="H47" s="38"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="10"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="7:10" ht="15.75">
-      <c r="H48" s="38"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="10"/>
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="8:10" ht="15.75">
-      <c r="H49" s="38"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="10"/>
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="8:10" ht="15.75">
-      <c r="H50" s="38"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="10"/>
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="38"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="G28:H28"/>
@@ -3850,11 +4165,11 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K25:K27"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planilha Controle(Instagram)/Planilha controle(Hugo).xlsx
+++ b/Planilha Controle(Instagram)/Planilha controle(Hugo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Planilha Controle(Instagram)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991195E-41F4-4004-84AA-B65FD93DC4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19491939-2E19-4673-B858-02A2AA7C3971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1125" windowWidth="12525" windowHeight="9570" xr2:uid="{77E39F9F-AC48-4950-AF6C-24C309E11276}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77E39F9F-AC48-4950-AF6C-24C309E11276}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="16" r:id="rId1"/>
@@ -830,12 +830,53 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,47 +903,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39718,7 +39718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873450D6-C3C1-4080-BD6D-44A1C6E50683}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -40590,10 +40590,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>1075</v>
@@ -40602,17 +40602,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -40621,7 +40621,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -40632,22 +40632,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>1900</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -40656,22 +40656,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -40680,25 +40680,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -40714,7 +40714,7 @@
         <f>SUM(D12:D14)</f>
         <v>1970</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -40725,7 +40725,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -40736,7 +40736,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -40745,24 +40745,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -40773,22 +40773,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -40797,22 +40797,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -40821,25 +40821,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -40855,10 +40855,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -40873,17 +40873,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -40892,7 +40892,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -40903,22 +40903,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -40927,22 +40927,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -40951,26 +40951,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -41095,17 +41095,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -41117,6 +41112,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
@@ -41184,10 +41184,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>1175</v>
@@ -41196,17 +41196,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -41215,7 +41215,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -41226,22 +41226,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>2000</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -41250,22 +41250,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -41274,25 +41274,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -41308,7 +41308,7 @@
         <f>SUM(D12:D14)</f>
         <v>2070</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -41319,7 +41319,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -41330,7 +41330,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -41339,24 +41339,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -41367,22 +41367,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -41391,22 +41391,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -41415,25 +41415,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -41449,10 +41449,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -41467,17 +41467,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -41486,7 +41486,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -41497,22 +41497,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -41521,22 +41521,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -41545,26 +41545,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -41689,17 +41689,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -41711,6 +41706,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
@@ -41778,10 +41778,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>1275</v>
@@ -41790,17 +41790,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -41809,7 +41809,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -41820,22 +41820,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>2100</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -41844,22 +41844,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -41868,25 +41868,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -41902,7 +41902,7 @@
         <f>SUM(D12:D14)</f>
         <v>2170</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -41913,7 +41913,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -41924,7 +41924,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -41933,24 +41933,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -41961,22 +41961,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -41985,22 +41985,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -42009,25 +42009,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -42043,10 +42043,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -42061,17 +42061,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -42080,7 +42080,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -42091,22 +42091,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -42115,22 +42115,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -42139,26 +42139,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -42283,17 +42283,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -42305,6 +42300,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -42372,10 +42372,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>1295</v>
@@ -42384,17 +42384,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -42403,7 +42403,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -42414,22 +42414,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>2120</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -42438,22 +42438,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -42462,25 +42462,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -42496,7 +42496,7 @@
         <f>SUM(D12:D14)</f>
         <v>2190</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -42507,7 +42507,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -42518,7 +42518,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -42527,24 +42527,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -42555,22 +42555,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -42579,22 +42579,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -42603,25 +42603,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -42637,10 +42637,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -42655,17 +42655,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -42674,7 +42674,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -42685,22 +42685,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -42709,22 +42709,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -42733,26 +42733,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -42877,17 +42877,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -42899,6 +42894,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
@@ -42934,229 +42934,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="34">
         <f>Janeiro!C4</f>
         <v>-1445</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="36">
         <f>Janeiro!C3</f>
         <v>2115</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="39">
         <f>Janeiro!C2</f>
         <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="34">
         <f>Fevereiro!C4</f>
         <v>-825</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="36">
         <f>Fevereiro!C3</f>
         <v>1495</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="39">
         <f>Fevereiro!C2</f>
         <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="34">
         <f>Março!C4</f>
         <v>-812</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="36">
         <f>Março!C3</f>
         <v>1495</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="39">
         <f>Março!C2</f>
         <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="34">
         <f>Abril!C4</f>
         <v>-825</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="36">
         <f>Abril!C3</f>
         <v>1495</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="39">
         <f>Abril!C2</f>
         <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="34">
         <f>Maio!C4</f>
         <v>675</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="36">
         <f>Maio!C3</f>
         <v>1495</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="39">
         <f>Maio!C2</f>
         <v>2170</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="34">
         <f>Junho!C4</f>
         <v>575</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="36">
         <f>Junho!C3</f>
         <v>1695</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="39">
         <f>Junho!C2</f>
         <v>2270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="34">
         <f>Julho!C4</f>
         <v>875</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="36">
         <f>Julho!C3</f>
         <v>1495</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="39">
         <f>Julho!C2</f>
         <v>2370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="34">
         <f>Agosto!C4</f>
         <v>975</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="36">
         <f>Agosto!C3</f>
         <v>1495</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="39">
         <f>Agosto!C2</f>
         <v>2470</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="34">
         <f>Setembro!C4</f>
         <v>1075</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="36">
         <f>Setembro!C3</f>
         <v>1495</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="39">
         <f>Setembro!C2</f>
         <v>2570</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="34">
         <f>'Outubro '!C4</f>
         <v>1175</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="36">
         <f>'Outubro '!C3</f>
         <v>1495</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="39">
         <f>'Outubro '!C2</f>
         <v>2670</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="34">
         <f>Novembro!C4</f>
         <v>1275</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="36">
         <f>Novembro!C3</f>
         <v>1495</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="39">
         <f>Novembro!C2</f>
         <v>2770</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="34">
         <f>Dezembro!C4</f>
         <v>1295</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="36">
         <f>Dezembro!C3</f>
         <v>1495</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="39">
         <f>Dezembro!C2</f>
         <v>2790</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="54">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="37">
         <f>SUM(C2:C13)</f>
         <v>18760</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="40">
         <f>SUM(D2:D13)</f>
         <v>22773</v>
       </c>
@@ -43234,10 +43234,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>-1445</v>
@@ -43246,17 +43246,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -43265,7 +43265,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -43276,22 +43276,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -43300,22 +43300,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -43324,25 +43324,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>1000</v>
@@ -43358,7 +43358,7 @@
         <f>SUM(D12:D14)</f>
         <v>70</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -43369,7 +43369,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -43380,7 +43380,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -43389,24 +43389,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -43417,22 +43417,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -43441,22 +43441,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -43465,25 +43465,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -43499,10 +43499,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -43517,17 +43517,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -43536,7 +43536,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -43547,22 +43547,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -43571,22 +43571,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -43595,26 +43595,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -43739,17 +43739,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="H40:H50"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A11:B14"/>
     <mergeCell ref="A18:B21"/>
@@ -43761,6 +43756,11 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K25:K27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="H40:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
@@ -43828,10 +43828,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>-825</v>
@@ -43840,17 +43840,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -43859,7 +43859,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -43870,22 +43870,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -43894,22 +43894,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -43918,25 +43918,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -43952,7 +43952,7 @@
         <f>SUM(D12:D14)</f>
         <v>70</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -43963,7 +43963,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -43974,7 +43974,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -43983,24 +43983,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -44011,22 +44011,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -44035,22 +44035,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -44059,25 +44059,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -44093,10 +44093,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -44111,17 +44111,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -44130,7 +44130,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -44141,22 +44141,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -44165,22 +44165,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -44189,26 +44189,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -44333,17 +44333,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -44355,6 +44350,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="153" priority="1" operator="greaterThan">
@@ -44422,10 +44422,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>-812</v>
@@ -44434,17 +44434,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -44453,7 +44453,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -44464,22 +44464,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>13</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -44488,22 +44488,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -44512,25 +44512,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -44546,7 +44546,7 @@
         <f>SUM(D12:D14)</f>
         <v>83</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -44557,7 +44557,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -44568,7 +44568,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -44577,24 +44577,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -44605,22 +44605,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -44629,22 +44629,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -44653,25 +44653,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -44687,10 +44687,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -44705,17 +44705,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -44724,7 +44724,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -44735,22 +44735,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -44759,22 +44759,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -44783,26 +44783,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -44927,17 +44927,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -44949,6 +44944,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="139" priority="1" operator="greaterThan">
@@ -45016,10 +45016,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>-825</v>
@@ -45028,17 +45028,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -45047,7 +45047,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -45058,22 +45058,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -45082,22 +45082,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -45106,25 +45106,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -45140,7 +45140,7 @@
         <f>SUM(D12:D14)</f>
         <v>70</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -45151,7 +45151,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -45162,7 +45162,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -45171,24 +45171,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -45199,22 +45199,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -45223,22 +45223,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -45247,25 +45247,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -45281,10 +45281,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -45299,17 +45299,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -45318,7 +45318,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -45329,22 +45329,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -45353,22 +45353,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -45377,26 +45377,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -45521,17 +45521,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -45543,6 +45538,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="125" priority="1" operator="greaterThan">
@@ -45610,10 +45610,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>675</v>
@@ -45622,17 +45622,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -45641,7 +45641,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -45652,22 +45652,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>1500</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -45676,22 +45676,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -45700,25 +45700,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -45734,7 +45734,7 @@
         <f>SUM(D12:D14)</f>
         <v>1570</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -45745,7 +45745,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -45756,7 +45756,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -45765,24 +45765,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -45793,22 +45793,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -45817,22 +45817,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -45841,25 +45841,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -45875,10 +45875,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -45893,17 +45893,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -45912,7 +45912,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -45923,22 +45923,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -45947,22 +45947,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -45971,26 +45971,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -46115,17 +46115,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -46137,6 +46132,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="111" priority="1" operator="greaterThan">
@@ -46204,10 +46204,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>575</v>
@@ -46216,17 +46216,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -46235,7 +46235,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -46246,22 +46246,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>1600</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -46270,22 +46270,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -46294,25 +46294,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>580</v>
@@ -46328,7 +46328,7 @@
         <f>SUM(D12:D14)</f>
         <v>1670</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -46339,7 +46339,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -46350,7 +46350,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -46359,24 +46359,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -46387,22 +46387,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -46411,22 +46411,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -46435,25 +46435,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -46469,10 +46469,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -46487,17 +46487,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -46506,7 +46506,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -46517,22 +46517,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -46541,22 +46541,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -46565,26 +46565,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -46709,17 +46709,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -46731,6 +46726,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="97" priority="1" operator="greaterThan">
@@ -46798,10 +46798,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>875</v>
@@ -46810,17 +46810,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -46829,7 +46829,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -46840,22 +46840,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>1700</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -46864,22 +46864,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -46888,25 +46888,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -46922,7 +46922,7 @@
         <f>SUM(D12:D14)</f>
         <v>1770</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -46933,7 +46933,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -46944,7 +46944,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -46953,24 +46953,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -46981,22 +46981,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -47005,22 +47005,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -47029,25 +47029,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -47063,10 +47063,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -47081,17 +47081,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -47100,7 +47100,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -47111,22 +47111,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -47135,22 +47135,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -47159,26 +47159,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -47303,17 +47303,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -47325,6 +47320,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="83" priority="1" operator="greaterThan">
@@ -47392,10 +47392,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="9">
         <f>C2-C3</f>
         <v>975</v>
@@ -47404,17 +47404,17 @@
     <row r="6" spans="1:13" ht="189" customHeight="1"/>
     <row r="10" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -47423,7 +47423,7 @@
       <c r="I11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -47434,22 +47434,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>1800</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6">
         <v>89</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="3" t="s">
         <v>37</v>
       </c>
@@ -47458,22 +47458,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>198</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="7" t="s">
         <v>17</v>
       </c>
@@ -47482,25 +47482,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="23">
         <v>70</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="6">
         <v>150</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="9">
         <f>SUM(M11:M13)</f>
         <v>380</v>
@@ -47516,7 +47516,7 @@
         <f>SUM(D12:D14)</f>
         <v>1870</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -47527,7 +47527,7 @@
     <row r="16" spans="1:13" ht="15.75">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
@@ -47538,7 +47538,7 @@
     <row r="17" spans="1:13" ht="16.5" thickBot="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="44"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="3" t="s">
         <v>14</v>
       </c>
@@ -47547,24 +47547,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="6">
         <v>0</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="K18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -47575,22 +47575,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="22">
         <v>100</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3" t="s">
         <v>26</v>
       </c>
@@ -47599,22 +47599,22 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="23">
         <v>100</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="7" t="s">
         <v>27</v>
       </c>
@@ -47623,25 +47623,25 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="9">
         <f>SUM(M18:M20)</f>
         <v>97</v>
@@ -47657,10 +47657,10 @@
         <f>SUM(D19:D21)</f>
         <v>200</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="33"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="9">
         <f>SUM(I11:I21)</f>
         <v>837</v>
@@ -47675,17 +47675,17 @@
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -47694,7 +47694,7 @@
       <c r="I25" s="5">
         <v>91</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="45" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -47705,22 +47705,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="36"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="22">
         <v>100</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="K26" s="44"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="3" t="s">
         <v>31</v>
       </c>
@@ -47729,22 +47729,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="23">
         <v>300</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
@@ -47753,26 +47753,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="9">
         <f>SUM(I25:I27)</f>
         <v>181</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="9">
         <f>SUM(M25:M27)</f>
         <v>0</v>
@@ -47897,17 +47897,12 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="8:10" ht="15.75">
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H40:H50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="G25:G27"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K28:L28"/>
@@ -47919,6 +47914,11 @@
     <mergeCell ref="A18:B21"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H40:H50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
